--- a/AgriCast360/Script/Market.xlsx
+++ b/AgriCast360/Script/Market.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUDA_Experiments\Git_HUB\AgriCast360\Datasets\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUDA_Experiments\Git_HUB\AgriCast360\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{09BFED54-E001-4EEA-B030-794B9ADBD591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F51EA4C4-E56C-4483-8E11-A6A29F871C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,81 +25,88 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
-  <si>
-    <t>MARKET_COORDINATES = {</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Bardoli": (21.1240, 73.1115),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Bardoli(Kat)": (21.1255, 73.1132),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Bardoli(Ma)": (21.1268, 73.1101),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Kosamba": (21.4836, 72.9612),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Kosamba(D)": (21.4850, 72.9630),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Mahuva": (21.0936, 71.7717),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Mahuva(Am)": (21.0952, 71.7733),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Mandvi": (21.2553, 73.3041),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Nizar": (21.3733, 74.1982),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Nizar(Kuka)": (21.3750, 74.2000),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Nizar(Pumb)": (21.3765, 74.2020),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "S.Mandvi": (21.2553, 73.3041),  # Same as Mandvi unless specified</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Songadh": (21.1697, 73.5636),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Songadh(B)": (21.1712, 73.5650),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Songadh(U)": (21.1725, 73.5665),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Surat": (21.1702, 72.8311),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Uchhal": (21.3850, 73.6330),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Valod": (21.1250, 73.2080),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Valod(Buh)": (21.1265, 73.2095),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Vyara(Pan)": (21.1150, 73.3930),</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    "Vyra": (21.1140, 73.3915)</t>
-  </si>
-  <si>
-    <t>}</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+  <si>
+    <t>Bardoli</t>
+  </si>
+  <si>
+    <t>Bardoli(Kat)</t>
+  </si>
+  <si>
+    <t>Bardoli(Ma)</t>
+  </si>
+  <si>
+    <t>Kosamba</t>
+  </si>
+  <si>
+    <t>Kosamba(D)</t>
+  </si>
+  <si>
+    <t>Mahuva</t>
+  </si>
+  <si>
+    <t>Mahuva(Am)</t>
+  </si>
+  <si>
+    <t>Mandvi</t>
+  </si>
+  <si>
+    <t>Nizar</t>
+  </si>
+  <si>
+    <t>Nizar(Kuka)</t>
+  </si>
+  <si>
+    <t>Nizar(Pumb)</t>
+  </si>
+  <si>
+    <t>Songadh</t>
+  </si>
+  <si>
+    <t>Songadh(B)</t>
+  </si>
+  <si>
+    <t>Songadh(U)</t>
+  </si>
+  <si>
+    <t>Surat</t>
+  </si>
+  <si>
+    <t>Uchhal</t>
+  </si>
+  <si>
+    <t>Valod</t>
+  </si>
+  <si>
+    <t>Valod(Buh)</t>
+  </si>
+  <si>
+    <t>Vyara(Pan)</t>
+  </si>
+  <si>
+    <t>Market</t>
+  </si>
+  <si>
+    <t>Latitude</t>
+  </si>
+  <si>
+    <t>Longitude</t>
+  </si>
+  <si>
+    <t>S. Mandvi</t>
+  </si>
+  <si>
+    <t>Vyara</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="2">
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="171" formatCode="0.00000"/>
+  </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -129,8 +136,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -411,133 +420,261 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A23"/>
+  <dimension ref="A1:C22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="58.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="25.109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B2" s="1">
+        <v>21.13</v>
+      </c>
+      <c r="C2" s="2">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="B3" s="1">
+        <v>21.13</v>
+      </c>
+      <c r="C3" s="2">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="B4" s="1">
+        <v>21.13</v>
+      </c>
+      <c r="C4" s="2">
+        <v>73.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="B5" s="1">
+        <v>21.4833</v>
+      </c>
+      <c r="C5" s="2">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="B6" s="1">
+        <v>21.4833</v>
+      </c>
+      <c r="C6" s="2">
+        <v>72.95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="B7" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="C7" s="2">
+        <v>73.150000000000006</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
+      <c r="B8" s="1">
+        <v>21.02</v>
+      </c>
+      <c r="C8" s="2">
+        <v>73.150000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
+      <c r="B9" s="1">
+        <v>21.15</v>
+      </c>
+      <c r="C9" s="2">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="B10" s="1">
+        <v>21.47</v>
+      </c>
+      <c r="C10" s="2">
+        <v>74.19</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="B11" s="1">
+        <v>21.47</v>
+      </c>
+      <c r="C11" s="2">
+        <v>74.19</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="B12" s="1">
+        <v>21.47</v>
+      </c>
+      <c r="C12" s="2">
+        <v>74.19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" s="1">
+        <v>21.15</v>
+      </c>
+      <c r="C13" s="2">
+        <v>73.180000000000007</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="B14" s="1">
+        <v>21.167000000000002</v>
+      </c>
+      <c r="C14" s="2">
+        <v>73.563999999999993</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="B15" s="1">
+        <v>21.167000000000002</v>
+      </c>
+      <c r="C15" s="2">
+        <v>73.563999999999993</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="B16" s="1">
+        <v>21.167000000000002</v>
+      </c>
+      <c r="C16" s="2">
+        <v>73.563999999999993</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="B17" s="1">
+        <v>21.17</v>
+      </c>
+      <c r="C17" s="2">
+        <v>72.83</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="B18" s="1">
+        <v>21.171399999999998</v>
+      </c>
+      <c r="C18" s="2">
+        <v>73.741200000000006</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
+      <c r="B19" s="1">
+        <v>21.0488</v>
+      </c>
+      <c r="C19" s="2">
+        <v>73.263800000000003</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
+      <c r="B20" s="1">
+        <v>21.0488</v>
+      </c>
+      <c r="C20" s="2">
+        <v>73.263800000000003</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" s="1">
+        <v>21.12</v>
+      </c>
+      <c r="C21" s="2">
+        <v>73.400000000000006</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="B22" s="1">
+        <v>21.12</v>
+      </c>
+      <c r="C22" s="2">
+        <v>73.400000000000006</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AgriCast360/Script/Market.xlsx
+++ b/AgriCast360/Script/Market.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CUDA_Experiments\Git_HUB\AgriCast360\Script\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{197767C4-312E-43D4-B8AB-996370AC95D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B001B3A-86DE-44CF-8AD5-20205BCBBA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -479,7 +479,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
